--- a/biology/Botanique/Jardin_polonais/Jardin_polonais.xlsx
+++ b/biology/Botanique/Jardin_polonais/Jardin_polonais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin polonais (Польский сад; Polsky sad) est un jardin public situé dans le centre historique de Saint-Pétersbourg en Russie. Il tient son nom de la cathédrale polonaise fréquentée avant sa fermeture dans les années 1930 par une majorité de Polonais ethniques et qui donne sur le jardin. il se trouve dans le district de l'Amirauté, au  milieu du rectangle limité par le quai de la Fontanka, la perspective (ou avenue) Izmaïlovski, la ruelle Derjavine et la 1re rue de l'Armée rouge. Ce jardin s'étend sur 2,3 hectares et son entrée est payante.
 L'ancêtre de ce jardin est le parc du palais de Derjavine qui se trouvait là et qui ouvrait sur la Fontanka. Il fut démoli par l'architecte Nikolaï Lvov.
